--- a/medicine/Pharmacie/Classe_ATC_M02/Classe_ATC_M02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_M02/Classe_ATC_M02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M02, dénommée « Produits topiques pour les douleurs articulaires et musculaires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M02, dénommée « Produits topiques pour les douleurs articulaires et musculaires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M02AA Anti-inflammatoires non stéroïdiens à usage topique
-M02AA01 Phénylbutazone
+          <t>M02AA Anti-inflammatoires non stéroïdiens à usage topique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M02AA01 Phénylbutazone
 M02AA02 Mofébutazone (en)
 M02AA03 Clofézone (en)
 M02AA04 Oxyphenbutazone (en)
@@ -541,14 +558,116 @@
 M02AA26 Nimésulide
 M02AA27 Dexkétoprofène (en)
 M02AA28 Pikétoprofène
-« QM02AA99 » Préparations topiques d'anti-inflammatoires non stéroïdiens, associations
-M02AB Capsaïcine et médicaments similaires
-M02AB01 Capsaïcine
-M02AB02 Zucapsaïcine (en)
-M02AC Préparations avec des dérivés de l'acide salicylique
-QM02AC99 Préparations avec dérivés d'acide salicylique, associations
-M02AX Autres topiques pour douleurs articulaire et musculaire
-M02AX02 Tolazoline (en)
+« QM02AA99 » Préparations topiques d'anti-inflammatoires non stéroïdiens, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M02A Produits topiques pour les douleurs articulaires et musculaires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M02AB Capsaïcine et médicaments similaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M02AB01 Capsaïcine
+M02AB02 Zucapsaïcine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M02A Produits topiques pour les douleurs articulaires et musculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M02AC Préparations avec des dérivés de l'acide salicylique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>QM02AC99 Préparations avec dérivés d'acide salicylique, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M02A Produits topiques pour les douleurs articulaires et musculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M02AX Autres topiques pour douleurs articulaire et musculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M02AX02 Tolazoline (en)
 M02AX03 Diméthylsulfoxyde
 M02AX05 Idrocilamide
 M02AX06 Tolpérisone (en)
